--- a/exploratory_analysis/resultados_feature_selection.xlsx
+++ b/exploratory_analysis/resultados_feature_selection.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resultados" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top 5 Médias" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Selected Features" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Resultados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Top 5 Médias" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Selected Features" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
         <v>0.8388704928078611</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8388704928078611</v>
+        <v>0.8445743889623244</v>
       </c>
       <c r="E3" t="n">
         <v>0.8012336167697753</v>
@@ -524,7 +524,7 @@
         <v>0.8012336167697753</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8232895200509522</v>
+        <v>0.8238599096663985</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>0.9428090415820634</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9428090415820634</v>
+        <v>0.9442628728875527</v>
       </c>
       <c r="E4" t="n">
         <v>0.9057051304175914</v>
@@ -565,7 +565,7 @@
         <v>0.8654312181887349</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9183637606030336</v>
+        <v>0.9185091437335826</v>
       </c>
     </row>
     <row r="5">
@@ -579,7 +579,7 @@
         <v>0.9428090415820634</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9428090415820634</v>
+        <v>0.9442628728875527</v>
       </c>
       <c r="E5" t="n">
         <v>0.9057051304175914</v>
@@ -606,7 +606,7 @@
         <v>0.8819171036881969</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9215801862120825</v>
+        <v>0.9217255693426315</v>
       </c>
     </row>
     <row r="6">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transtorno/sintomas neurológicos</t>
+          <t xml:space="preserve">Neurological disorder/symptoms </t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transtorno/sintomas neurológicos</t>
+          <t xml:space="preserve">Neurological disorder/symptoms </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dificuldade de deambular</t>
+          <t>Difficulty walking</t>
         </is>
       </c>
     </row>
@@ -1428,17 +1428,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transtorno/sintomas neurológicos</t>
+          <t xml:space="preserve">Neurological disorder/symptoms </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Neuropatia</t>
+          <t>Neuropathy</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dificuldade de deambular</t>
+          <t>Difficulty walking</t>
         </is>
       </c>
     </row>
@@ -1448,22 +1448,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sexo</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Transtorno/sintomas neurológicos</t>
+          <t xml:space="preserve">Neurological disorder/symptoms </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Neuropatia</t>
+          <t>Neuropathy</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dificuldade de deambular</t>
+          <t>Difficulty walking</t>
         </is>
       </c>
     </row>
@@ -1473,27 +1473,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sexo</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sintomas urinários</t>
+          <t>Urinary symptoms</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Transtorno/sintomas neurológicos</t>
+          <t xml:space="preserve">Neurological disorder/symptoms </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Neuropatia</t>
+          <t>Neuropathy</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dificuldade de deambular</t>
+          <t>Difficulty walking</t>
         </is>
       </c>
     </row>
@@ -1503,32 +1503,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sexo</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sintomas urinários</t>
+          <t>Urinary symptoms</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dor</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transtorno/sintomas neurológicos</t>
+          <t xml:space="preserve">Neurological disorder/symptoms </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Neuropatia</t>
+          <t>Neuropathy</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dificuldade de deambular</t>
+          <t>Difficulty walking</t>
         </is>
       </c>
     </row>
@@ -1538,37 +1538,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sexo</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Idade</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sintomas urinários</t>
+          <t>Urinary symptoms</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dor</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Transtorno/sintomas neurológicos</t>
+          <t xml:space="preserve">Neurological disorder/symptoms </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Neuropatia</t>
+          <t>Neuropathy</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Dificuldade de deambular</t>
+          <t>Difficulty walking</t>
         </is>
       </c>
     </row>
@@ -1578,42 +1578,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sexo</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Idade</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sintomas urinários</t>
+          <t>Urinary symptoms</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dor</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Transtorno/sintomas neurológicos</t>
+          <t xml:space="preserve">Neurological disorder/symptoms </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neuropatia</t>
+          <t>Neuropathy</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Dificuldade de deambular</t>
+          <t>Difficulty walking</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Descontrole esfincteriano</t>
+          <t>Sphincter dyscontrol</t>
         </is>
       </c>
     </row>
@@ -1623,12 +1623,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sexo</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Idade</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1638,32 +1638,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sintomas urinários</t>
+          <t>Urinary symptoms</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dor</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Transtorno/sintomas neurológicos</t>
+          <t xml:space="preserve">Neurological disorder/symptoms </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Neuropatia</t>
+          <t>Neuropathy</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Dificuldade de deambular</t>
+          <t>Difficulty walking</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Descontrole esfincteriano</t>
+          <t>Sphincter dyscontrol</t>
         </is>
       </c>
     </row>
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sexo</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Idade</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1688,37 +1688,37 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sintomas urinários</t>
+          <t>Urinary symptoms</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dor</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Transtorno/sintomas neurológicos</t>
+          <t xml:space="preserve">Neurological disorder/symptoms </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Neuropatia</t>
+          <t>Neuropathy</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Transtornos mentais</t>
+          <t>Mental disorders</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Dificuldade de deambular</t>
+          <t>Difficulty walking</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Descontrole esfincteriano</t>
+          <t>Sphincter dyscontrol</t>
         </is>
       </c>
     </row>
@@ -1728,12 +1728,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sexo</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Idade</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1743,42 +1743,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sintomas urinários</t>
+          <t>Urinary symptoms</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dor</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Transtorno/sintomas neurológicos</t>
+          <t xml:space="preserve">Neurological disorder/symptoms </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Neuropatia</t>
+          <t>Neuropathy</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Doença crônica</t>
+          <t>Chronic disease</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Transtornos mentais</t>
+          <t>Mental disorders</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Dificuldade de deambular</t>
+          <t>Difficulty walking</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Descontrole esfincteriano</t>
+          <t>Sphincter dyscontrol</t>
         </is>
       </c>
     </row>
@@ -1788,12 +1788,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sexo</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Idade</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1808,42 +1808,42 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sintomas urinários</t>
+          <t>Urinary symptoms</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dor</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Transtorno/sintomas neurológicos</t>
+          <t xml:space="preserve">Neurological disorder/symptoms </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Neuropatia</t>
+          <t>Neuropathy</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Doença crônica</t>
+          <t>Chronic disease</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Transtornos mentais</t>
+          <t>Mental disorders</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Dificuldade de deambular</t>
+          <t>Difficulty walking</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Descontrole esfincteriano</t>
+          <t>Sphincter dyscontrol</t>
         </is>
       </c>
     </row>
@@ -1853,12 +1853,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sexo</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Idade</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1878,42 +1878,42 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sintomas urinários</t>
+          <t>Urinary symptoms</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dor</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Transtorno/sintomas neurológicos</t>
+          <t xml:space="preserve">Neurological disorder/symptoms </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Neuropatia</t>
+          <t>Neuropathy</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Doença crônica</t>
+          <t>Chronic disease</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Transtornos mentais</t>
+          <t>Mental disorders</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Dificuldade de deambular</t>
+          <t>Difficulty walking</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Descontrole esfincteriano</t>
+          <t>Sphincter dyscontrol</t>
         </is>
       </c>
     </row>
